--- a/ecosysem/db/Excels/Hs.xlsx
+++ b/ecosysem/db/Excels/Hs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2E426-63CF-403D-B343-0200FC8B7AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A3E8E-6B13-48D5-96FB-D0DBDE248447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
+    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
   </bookViews>
   <sheets>
     <sheet name="Hs" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,8 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/db/Excels/Hs.xlsx
+++ b/ecosysem/db/Excels/Hs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A3E8E-6B13-48D5-96FB-D0DBDE248447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED2E802-8513-418D-83CC-60EB25862691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
+    <workbookView xWindow="-11520" yWindow="600" windowWidth="11520" windowHeight="12360" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
   </bookViews>
   <sheets>
     <sheet name="Hs" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>H2S</t>
   </si>
   <si>
-    <t>Douabul2005</t>
+    <t>Douabul1979b</t>
   </si>
 </sst>
 </file>
@@ -619,8 +619,8 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/db/Excels/Hs.xlsx
+++ b/ecosysem/db/Excels/Hs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED2E802-8513-418D-83CC-60EB25862691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C59A5DE-FF0E-4ADC-B86E-4DA9BE7E0156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11520" yWindow="600" windowWidth="11520" windowHeight="12360" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
   </bookViews>
   <sheets>
     <sheet name="Hs" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,6 +272,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,8 +628,8 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +769,7 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -879,7 +888,7 @@
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>7.7000000000000008E-6</v>
       </c>
       <c r="E15" s="3" t="s">

--- a/ecosysem/db/Excels/Hs.xlsx
+++ b/ecosysem/db/Excels/Hs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C59A5DE-FF0E-4ADC-B86E-4DA9BE7E0156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94880A14-DC60-48D8-9548-4D0A78A2E12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
   </bookViews>
   <sheets>
     <sheet name="Hs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
   <si>
     <t>IUPAC</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Douabul1979b</t>
+  </si>
+  <si>
+    <t>Nitrous acid</t>
+  </si>
+  <si>
+    <t>Nitric acid</t>
+  </si>
+  <si>
+    <t>HNO2</t>
+  </si>
+  <si>
+    <t>HNO3</t>
   </si>
 </sst>
 </file>
@@ -625,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B001722-B163-4E4C-959D-0EB9FF063803}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,6 +1196,74 @@
         <v>52</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2100</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
